--- a/prep/_pressures/po_trash_mse2019.xlsx
+++ b/prep/_pressures/po_trash_mse2019.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AGUAS LIMPIAS\CAPAS DE DATOS AGUAS LIMPIAS\EXCELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hurtadoyhurtado\carpeta compartida\PROYECTOS\CI IdSO MANABÍ Y SANTA ELENA\CAPAS DE DATOS\05 AGUAS LIMPIAS\AGUAS LIMPIAS 2019\DATOS CRUDOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EC4BC-9829-4B2E-8D3E-211B269036A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19590" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PARÁMETROS" sheetId="3" r:id="rId1"/>
+    <sheet name="RESIDUOS MAE" sheetId="3" r:id="rId1"/>
     <sheet name="po_trash_cálculos" sheetId="1" r:id="rId2"/>
-    <sheet name="po_trash" sheetId="2" r:id="rId3"/>
+    <sheet name="po_trash_mse2019" sheetId="2" r:id="rId3"/>
+    <sheet name="gráficos" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">po_trash_cálculos!$R$6:$S$17</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,177 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>PROVINCIA</t>
   </si>
   <si>
     <t>CANTÓN</t>
-  </si>
-  <si>
-    <t>Coastal population (2010)</t>
-  </si>
-  <si>
-    <r>
-      <t>Waste generation rate [kg/person/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>% Plastic in waste stream</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>% Inadequately managed waste</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>% Littered waste</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Waste generation [kg/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Plastic waste generation [kg/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inadequately managed plastic waste [kg/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Plastic waste littered
- [kg/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mismanaged plastic waste [kg/person/day]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mismanaged plastic waste in 2010
- [tonnes]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
   </si>
   <si>
     <t>Ecuador</t>
@@ -263,9 +98,6 @@
     <t>MAX</t>
   </si>
   <si>
-    <t>(Mismanaged plastic waste in 2010/MAX) ESCALADO</t>
-  </si>
-  <si>
     <t>Basica</t>
   </si>
   <si>
@@ -301,17 +133,140 @@
   <si>
     <t>pressure_score</t>
   </si>
+  <si>
+    <t xml:space="preserve">[1] INEC (2019). Censo de Población y Vivienda 2010. http://www.ecuadorencifras.gob.ec/base-de-datos-censo-de-poblacion-y-vivienda/ </t>
+  </si>
+  <si>
+    <t>[2] MAE (2013). Programa Nacional para la gestión integral de desechos sólidos. https://slideplayer.es/slide/3832641/</t>
+  </si>
+  <si>
+    <t>Fuente: MAE (2013). Programa Nacional para la gestión integral de desechos sólidos. https://slideplayer.es/slide/3832641/</t>
+  </si>
+  <si>
+    <t>Jama</t>
+  </si>
+  <si>
+    <t>Jipijapa</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>Montecristi</t>
+  </si>
+  <si>
+    <t>Pedernales</t>
+  </si>
+  <si>
+    <t>Portoviejo</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Tosagua</t>
+  </si>
+  <si>
+    <t>Chone</t>
+  </si>
+  <si>
+    <t>Jaramijó</t>
+  </si>
+  <si>
+    <t>Puerto López</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Santa Elena</t>
+  </si>
+  <si>
+    <t>Manabí</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Presión</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>LN (TON 2010)</t>
+  </si>
+  <si>
+    <t>LN ESCALADO CON EL MÁXIMO DEL ÁREA DE ESTUDIO</t>
+  </si>
+  <si>
+    <t>MANABÍ</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PLÁSTICO MAL MANEJADO %</t>
+  </si>
+  <si>
+    <t>PLÁSTICO MAL MANEJADO (tn)</t>
+  </si>
+  <si>
+    <t>Población costera (2010) [1]</t>
+  </si>
+  <si>
+    <t>Tasa de generación de residuo [kg/person/día] [2]</t>
+  </si>
+  <si>
+    <t>% Plástico en residuos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Residuos inadecuadamente gestionados </t>
+  </si>
+  <si>
+    <t>% Basura desechada inadecuadamente</t>
+  </si>
+  <si>
+    <t>Generación de residuos  [kg/día]</t>
+  </si>
+  <si>
+    <t>Generación de residuos plásticos  [kg/día]</t>
+  </si>
+  <si>
+    <t>Residuos de plástico inadecuadamente gestionados [kg/día]</t>
+  </si>
+  <si>
+    <t>Residuos de plástico 
+ [kg/día]</t>
+  </si>
+  <si>
+    <t>Residuo de plástico mal administrado [kg/person/día]</t>
+  </si>
+  <si>
+    <t>Residuo de plástico mal administrado en 2010 
+ [ton/año]</t>
+  </si>
+  <si>
+    <t>Metodología:  Jambeck et al. (2016). Plastic waste inputs from land into the ocean. https://science.sciencemag.org/content/suppl/2015/02/11/347.6223.768.DC1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,14 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -394,6 +341,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -409,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,42 +394,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,19 +469,64 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Millares 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -505,6 +537,5076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Toneladas de desechos plásticos incorrectamente maneajdos en cantones costeros de Manabí para el año 2010</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>po_trash_cálculos!$R$6:$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Portoviejo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jipijapa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Montecristi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sucre</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pedernales</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tosagua</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jama</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>San Vicente</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Puerto López</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jaramijó</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>po_trash_cálculos!$S$6:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2880.0423502762392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2329.2707232590619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300.9346779397556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>731.07446151893521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>722.95975406232196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587.86890179031309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>566.98047232975352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.73678360982876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214.53382617248769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203.20421113185569</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188.68237556674606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170.55314628755886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="224846336"/>
+        <c:axId val="224848576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="224846336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224848576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224848576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Toneladas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224846336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Toneladas de desechos plásticos incorrectamente maneajdos en cantones costeros de Santa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Elena</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> para el año 2010</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>po_trash_cálculos!$R$3:$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Santa Elena</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>La Libertad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Salinas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>po_trash_cálculos!$S$3:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1481.7928965908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>986.74431280404144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>706.3086623357608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="224845216"/>
+        <c:axId val="282612016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="224845216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282612016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282612016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Toneladas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224845216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Toneladas de desechos plásticos incorrectamente manejados en cantones costeros de Manabí y Santa Elena para el año </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>2010</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-EC" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>po_trash_cálculos!$Q$3:$R$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Santa Elena</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>La Libertad</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Salinas</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Portoviejo</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Manta</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Chone</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jipijapa</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Montecristi</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Sucre</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pedernales</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Tosagua</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Jama</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>San Vicente</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Puerto López</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jaramijó</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Santa Elena</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manabí</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>po_trash_cálculos!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1481.7928965908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>986.74431280404144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>706.3086623357608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2880.0423502762392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2329.2707232590619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300.9346779397556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>731.07446151893521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>722.95975406232196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>587.86890179031309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>566.98047232975352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>353.73678360982876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>214.53382617248769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203.20421113185569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>188.68237556674606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.55314628755886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="282612576"/>
+        <c:axId val="282228752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="282612576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282228752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282228752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Toneladas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282612576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>po_trash_cálculos!$N$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PLÁSTICO MAL MANEJADO %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>po_trash_cálculos!$L$27:$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MANABÍ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SANTA ELENA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>po_trash_cálculos!$N$27:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.90641400913774794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3585990862252014E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plásticos marinos: Valores de Estado y Presión IdSO </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>MSE (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Jambeck </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>et al.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-EC" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, 2016)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gráficos!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Presión</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>gráficos!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Santa Elena</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manabí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gráficos!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.86552743440069635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79823818952551207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gráficos!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-EC"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>gráficos!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Santa Elena</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Manabí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gráficos!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13447256559930365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20176181047448793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="283399328"/>
+        <c:axId val="283399888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="283399328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283399888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283399888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283399328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,6 +7030,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9C7BD3E5-68BC-4189-AAB8-658CE0345833}" type="pres">
       <dgm:prSet presAssocID="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" presName="linNode" presStyleCnt="0"/>
@@ -1941,6 +7050,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" type="pres">
       <dgm:prSet presAssocID="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" presName="descendantText" presStyleLbl="alignAccFollowNode1" presStyleIdx="0" presStyleCnt="5" custScaleY="219348" custLinFactNeighborX="639" custLinFactNeighborY="-43904">
@@ -1949,6 +7065,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7540C69C-2169-44FE-ADCE-8E23502DCBD3}" type="pres">
       <dgm:prSet presAssocID="{B5111266-FF0D-431F-BBF9-66C7F1A6FF8E}" presName="sp" presStyleCnt="0"/>
@@ -1966,6 +7089,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D650F7A-BFE6-DB4A-9105-E6E4F5F41C22}" type="pres">
       <dgm:prSet presAssocID="{E198C860-F583-3A45-B783-2F1B64498303}" presName="descendantText" presStyleLbl="alignAccFollowNode1" presStyleIdx="1" presStyleCnt="5" custScaleY="228535">
@@ -1974,6 +7104,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{97830D75-5FBD-5748-854F-D54FFE7A529F}" type="pres">
       <dgm:prSet presAssocID="{6EBA461A-EF40-7C42-808C-13AB114788E8}" presName="sp" presStyleCnt="0"/>
@@ -1991,6 +7128,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{559308A9-B2DA-C74B-997E-3C2A17F7D843}" type="pres">
       <dgm:prSet presAssocID="{3B22AF23-C402-284E-94ED-F6615174E79D}" presName="descendantText" presStyleLbl="alignAccFollowNode1" presStyleIdx="2" presStyleCnt="5" custScaleY="197526">
@@ -1999,6 +7143,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9ECFDBB3-6FDC-9746-82EB-4D9EA2B13284}" type="pres">
       <dgm:prSet presAssocID="{D4B4AB0A-4AB5-034E-AEA2-8BFBB76563F6}" presName="sp" presStyleCnt="0"/>
@@ -2016,6 +7167,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D65C2623-45BD-DC45-B1B1-AD2A2C5740C3}" type="pres">
       <dgm:prSet presAssocID="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" presName="descendantText" presStyleLbl="alignAccFollowNode1" presStyleIdx="3" presStyleCnt="5" custScaleY="203148">
@@ -2024,6 +7182,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C6E21C76-4BC8-9E43-B2AB-ECBC70D75A09}" type="pres">
       <dgm:prSet presAssocID="{CE595159-41CD-D443-8F5F-79EF4DC30577}" presName="sp" presStyleCnt="0"/>
@@ -2041,6 +7206,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E2722DC5-7D56-0D41-A1F0-8943119E8838}" type="pres">
       <dgm:prSet presAssocID="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" presName="descendantText" presStyleLbl="alignAccFollowNode1" presStyleIdx="4" presStyleCnt="5" custScaleY="218664">
@@ -2049,40 +7221,47 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{0BC6D809-3186-4D17-B48A-8750B53F37E9}" srcId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" destId="{59B3B96E-3741-456F-A9EF-563DDEA6A387}" srcOrd="0" destOrd="0" parTransId="{9E9CF621-4D2A-43CF-9403-8694FDBC61F3}" sibTransId="{6009877E-1747-48D3-A911-016F9DC5268F}"/>
-    <dgm:cxn modelId="{B2889A16-B799-4A0B-8A6A-98562E9E7989}" type="presOf" srcId="{8786B031-BBEC-004E-B401-16E2DB877E64}" destId="{E2722DC5-7D56-0D41-A1F0-8943119E8838}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{3FA8B827-CE26-AB4E-AFEA-A2D349DC1784}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{3B22AF23-C402-284E-94ED-F6615174E79D}" srcOrd="2" destOrd="0" parTransId="{4444906B-EB1F-D14E-AFB8-F39CE987C67F}" sibTransId="{D4B4AB0A-4AB5-034E-AEA2-8BFBB76563F6}"/>
-    <dgm:cxn modelId="{06610635-BBA5-451E-86D8-B9F77D8C1809}" type="presOf" srcId="{288BCB4C-C7A2-42E4-B321-52FBF1683073}" destId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{AE8C4436-300D-4D0B-841A-C890DE1E8E81}" type="presOf" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{C7DEF7FE-8B4C-594C-92CF-560C3DC2E911}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{55C28E3E-A5EB-40E8-AF76-E164F3A420D1}" type="presOf" srcId="{7A9F7AFA-C04E-BD4D-82F0-C72444B4257E}" destId="{5D650F7A-BFE6-DB4A-9105-E6E4F5F41C22}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{5F4F9583-70A7-4E66-B989-88AECF720606}" type="presOf" srcId="{541570D1-BB87-5142-A402-22840FAA1C66}" destId="{5D650F7A-BFE6-DB4A-9105-E6E4F5F41C22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{C8F351EF-296D-499F-8B78-92030CDBABE9}" type="presOf" srcId="{59B3B96E-3741-456F-A9EF-563DDEA6A387}" destId="{E2722DC5-7D56-0D41-A1F0-8943119E8838}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{E2BDAE94-370A-411A-83C3-9D2E067A3AFA}" type="presOf" srcId="{FC7B3C0A-79EE-C043-98FB-AA5109650539}" destId="{D65C2623-45BD-DC45-B1B1-AD2A2C5740C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{B92E82A1-2AC9-1E46-9B77-DA221A30937C}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{E198C860-F583-3A45-B783-2F1B64498303}" srcOrd="1" destOrd="0" parTransId="{AEB4A8E4-1F1E-D84E-B712-6CFC524438EE}" sibTransId="{6EBA461A-EF40-7C42-808C-13AB114788E8}"/>
+    <dgm:cxn modelId="{A1D8BBE3-6122-0843-A318-8D0A148EA123}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" srcOrd="4" destOrd="0" parTransId="{EA26D911-164D-4D4C-A288-42E6489FD24B}" sibTransId="{90F9A3FD-63B4-B14E-A7AA-4B869E5C2E97}"/>
+    <dgm:cxn modelId="{A63AC344-7E93-44A2-BFFB-5F80901853AB}" type="presOf" srcId="{3B22AF23-C402-284E-94ED-F6615174E79D}" destId="{CDA767FF-EAED-DB47-940B-5DAF300473EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{B6F01763-067D-4716-AC9A-A9354EC8DA40}" type="presOf" srcId="{E198C860-F583-3A45-B783-2F1B64498303}" destId="{91549FCC-E9A0-B141-9774-A923F7381D2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{45C9CAD3-F461-4E58-B213-C9B68110B7F8}" type="presOf" srcId="{B0FEE185-A41D-C744-948A-D9E3BC18D0E2}" destId="{D65C2623-45BD-DC45-B1B1-AD2A2C5740C3}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{48B453F9-8F9E-E649-A4FD-1CC797FE0769}" srcId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" destId="{FC7B3C0A-79EE-C043-98FB-AA5109650539}" srcOrd="0" destOrd="0" parTransId="{64F4A272-3B11-224F-9BCE-E8B1FFFBF329}" sibTransId="{906ABFD1-D290-054E-9489-291D41EBD670}"/>
+    <dgm:cxn modelId="{C629AE64-7337-4C76-8FB8-CBC92494B0E0}" type="presOf" srcId="{C7A5B271-B84C-CC4D-99CA-21772D34F961}" destId="{559308A9-B2DA-C74B-997E-3C2A17F7D843}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{55336144-2B5A-48B0-9A6D-F3332C81F869}" srcId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" destId="{65D23040-8FE7-4CE8-B20B-0BE3B87B6BAF}" srcOrd="0" destOrd="0" parTransId="{FA6BC49E-B909-4F4E-90B5-3023E434653A}" sibTransId="{6A5323B1-617F-4DF1-A80A-51FD5043D7F4}"/>
-    <dgm:cxn modelId="{F8434D64-C311-A743-95CC-1EED8CCDDBF9}" srcId="{E198C860-F583-3A45-B783-2F1B64498303}" destId="{541570D1-BB87-5142-A402-22840FAA1C66}" srcOrd="0" destOrd="0" parTransId="{D899A435-369B-3641-96A7-864ED0FE03AD}" sibTransId="{17AC0375-E1CE-3940-82EE-7586D4188233}"/>
-    <dgm:cxn modelId="{C629AE64-7337-4C76-8FB8-CBC92494B0E0}" type="presOf" srcId="{C7A5B271-B84C-CC4D-99CA-21772D34F961}" destId="{559308A9-B2DA-C74B-997E-3C2A17F7D843}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{A63AC344-7E93-44A2-BFFB-5F80901853AB}" type="presOf" srcId="{3B22AF23-C402-284E-94ED-F6615174E79D}" destId="{CDA767FF-EAED-DB47-940B-5DAF300473EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{6B16ED47-9EC1-4F8B-B9A5-CF02DE5A5A71}" type="presOf" srcId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" destId="{813A54B4-3135-47CE-A174-3B2D3D4B534E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{14A5004C-F46E-41A7-A986-C7BB24F87310}" srcId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" destId="{288BCB4C-C7A2-42E4-B321-52FBF1683073}" srcOrd="1" destOrd="0" parTransId="{45FE9F1F-ABBF-4D9A-AB42-A83F8F05B67C}" sibTransId="{D758FBBE-BE06-4955-ACCC-DBAB44ACA41E}"/>
     <dgm:cxn modelId="{B4586752-9F7A-4BE8-B50B-773E493497E0}" type="presOf" srcId="{4B9D3448-F1F1-A64B-B475-FF5B1414BA51}" destId="{559308A9-B2DA-C74B-997E-3C2A17F7D843}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{DBECBF7F-19DB-4913-81BE-42478AF7FF2C}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" srcOrd="0" destOrd="0" parTransId="{85A410CD-FFA7-4721-A0E8-1CC80BA4261B}" sibTransId="{B5111266-FF0D-431F-BBF9-66C7F1A6FF8E}"/>
-    <dgm:cxn modelId="{5F4F9583-70A7-4E66-B989-88AECF720606}" type="presOf" srcId="{541570D1-BB87-5142-A402-22840FAA1C66}" destId="{5D650F7A-BFE6-DB4A-9105-E6E4F5F41C22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{DF28298D-C9F3-2147-85E8-D39D967E3067}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" srcOrd="3" destOrd="0" parTransId="{E14009BB-621C-2A41-A673-C557A1CA377B}" sibTransId="{CE595159-41CD-D443-8F5F-79EF4DC30577}"/>
-    <dgm:cxn modelId="{E2BDAE94-370A-411A-83C3-9D2E067A3AFA}" type="presOf" srcId="{FC7B3C0A-79EE-C043-98FB-AA5109650539}" destId="{D65C2623-45BD-DC45-B1B1-AD2A2C5740C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{70418B98-7171-4BC7-A37E-78424A35B9D8}" type="presOf" srcId="{65D23040-8FE7-4CE8-B20B-0BE3B87B6BAF}" destId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{B92E82A1-2AC9-1E46-9B77-DA221A30937C}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{E198C860-F583-3A45-B783-2F1B64498303}" srcOrd="1" destOrd="0" parTransId="{AEB4A8E4-1F1E-D84E-B712-6CFC524438EE}" sibTransId="{6EBA461A-EF40-7C42-808C-13AB114788E8}"/>
-    <dgm:cxn modelId="{C17A41A3-EA59-7141-9328-57DE78D008F2}" srcId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" destId="{B0FEE185-A41D-C744-948A-D9E3BC18D0E2}" srcOrd="1" destOrd="0" parTransId="{CAB522BF-C107-054B-AEDF-DD8065489477}" sibTransId="{CE82435C-F1D4-854D-8909-B60332A7F066}"/>
-    <dgm:cxn modelId="{5BB8DAB4-0986-430F-97D9-9BC83BF65415}" type="presOf" srcId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" destId="{45D2AFDD-45CA-754B-AA43-693B437746E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{2E0A4BCC-A4B1-7144-B28A-D0A45104CA3B}" srcId="{E198C860-F583-3A45-B783-2F1B64498303}" destId="{7A9F7AFA-C04E-BD4D-82F0-C72444B4257E}" srcOrd="1" destOrd="0" parTransId="{6543371B-5BBE-4743-BE56-5A7F7669D274}" sibTransId="{C427DA95-AF77-2349-8B32-BE493CCB5CE3}"/>
     <dgm:cxn modelId="{DC32ABCE-4241-CD42-91CD-9E50EC10BDA4}" srcId="{3B22AF23-C402-284E-94ED-F6615174E79D}" destId="{C7A5B271-B84C-CC4D-99CA-21772D34F961}" srcOrd="1" destOrd="0" parTransId="{E96DA78E-4AEB-E04F-B368-D297BB09B47D}" sibTransId="{F5D627D0-C4B1-9745-BCFE-30571189C1F1}"/>
-    <dgm:cxn modelId="{45C9CAD3-F461-4E58-B213-C9B68110B7F8}" type="presOf" srcId="{B0FEE185-A41D-C744-948A-D9E3BC18D0E2}" destId="{D65C2623-45BD-DC45-B1B1-AD2A2C5740C3}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{A1D8BBE3-6122-0843-A318-8D0A148EA123}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" srcOrd="4" destOrd="0" parTransId="{EA26D911-164D-4D4C-A288-42E6489FD24B}" sibTransId="{90F9A3FD-63B4-B14E-A7AA-4B869E5C2E97}"/>
+    <dgm:cxn modelId="{0BC6D809-3186-4D17-B48A-8750B53F37E9}" srcId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" destId="{59B3B96E-3741-456F-A9EF-563DDEA6A387}" srcOrd="0" destOrd="0" parTransId="{9E9CF621-4D2A-43CF-9403-8694FDBC61F3}" sibTransId="{6009877E-1747-48D3-A911-016F9DC5268F}"/>
+    <dgm:cxn modelId="{DBECBF7F-19DB-4913-81BE-42478AF7FF2C}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" srcOrd="0" destOrd="0" parTransId="{85A410CD-FFA7-4721-A0E8-1CC80BA4261B}" sibTransId="{B5111266-FF0D-431F-BBF9-66C7F1A6FF8E}"/>
+    <dgm:cxn modelId="{14A5004C-F46E-41A7-A986-C7BB24F87310}" srcId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" destId="{288BCB4C-C7A2-42E4-B321-52FBF1683073}" srcOrd="1" destOrd="0" parTransId="{45FE9F1F-ABBF-4D9A-AB42-A83F8F05B67C}" sibTransId="{D758FBBE-BE06-4955-ACCC-DBAB44ACA41E}"/>
+    <dgm:cxn modelId="{06610635-BBA5-451E-86D8-B9F77D8C1809}" type="presOf" srcId="{288BCB4C-C7A2-42E4-B321-52FBF1683073}" destId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{AFC28EEB-1EBE-449B-A925-CD0766BC7C69}" type="presOf" srcId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" destId="{7390C052-D57F-2345-A59A-DC77BC341A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
-    <dgm:cxn modelId="{C8F351EF-296D-499F-8B78-92030CDBABE9}" type="presOf" srcId="{59B3B96E-3741-456F-A9EF-563DDEA6A387}" destId="{E2722DC5-7D56-0D41-A1F0-8943119E8838}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{F8434D64-C311-A743-95CC-1EED8CCDDBF9}" srcId="{E198C860-F583-3A45-B783-2F1B64498303}" destId="{541570D1-BB87-5142-A402-22840FAA1C66}" srcOrd="0" destOrd="0" parTransId="{D899A435-369B-3641-96A7-864ED0FE03AD}" sibTransId="{17AC0375-E1CE-3940-82EE-7586D4188233}"/>
+    <dgm:cxn modelId="{C17A41A3-EA59-7141-9328-57DE78D008F2}" srcId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" destId="{B0FEE185-A41D-C744-948A-D9E3BC18D0E2}" srcOrd="1" destOrd="0" parTransId="{CAB522BF-C107-054B-AEDF-DD8065489477}" sibTransId="{CE82435C-F1D4-854D-8909-B60332A7F066}"/>
+    <dgm:cxn modelId="{55C28E3E-A5EB-40E8-AF76-E164F3A420D1}" type="presOf" srcId="{7A9F7AFA-C04E-BD4D-82F0-C72444B4257E}" destId="{5D650F7A-BFE6-DB4A-9105-E6E4F5F41C22}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{EEC7DCF6-403F-1C46-9270-A49C351F5092}" srcId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" destId="{8786B031-BBEC-004E-B401-16E2DB877E64}" srcOrd="1" destOrd="0" parTransId="{DA254942-8769-2547-977E-B4E876539A46}" sibTransId="{FB6FEF68-AC9B-B947-818F-945BC8CB97A9}"/>
-    <dgm:cxn modelId="{48B453F9-8F9E-E649-A4FD-1CC797FE0769}" srcId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" destId="{FC7B3C0A-79EE-C043-98FB-AA5109650539}" srcOrd="0" destOrd="0" parTransId="{64F4A272-3B11-224F-9BCE-E8B1FFFBF329}" sibTransId="{906ABFD1-D290-054E-9489-291D41EBD670}"/>
+    <dgm:cxn modelId="{3FA8B827-CE26-AB4E-AFEA-A2D349DC1784}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{3B22AF23-C402-284E-94ED-F6615174E79D}" srcOrd="2" destOrd="0" parTransId="{4444906B-EB1F-D14E-AFB8-F39CE987C67F}" sibTransId="{D4B4AB0A-4AB5-034E-AEA2-8BFBB76563F6}"/>
+    <dgm:cxn modelId="{70418B98-7171-4BC7-A37E-78424A35B9D8}" type="presOf" srcId="{65D23040-8FE7-4CE8-B20B-0BE3B87B6BAF}" destId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{D4A9EAFB-8EFA-A844-9109-55519A64765F}" srcId="{3B22AF23-C402-284E-94ED-F6615174E79D}" destId="{4B9D3448-F1F1-A64B-B475-FF5B1414BA51}" srcOrd="0" destOrd="0" parTransId="{908EBDA6-70C5-B248-A16B-7D0276715C37}" sibTransId="{5C186B2D-E6AB-EF4D-B949-98ED92504A65}"/>
+    <dgm:cxn modelId="{5BB8DAB4-0986-430F-97D9-9BC83BF65415}" type="presOf" srcId="{17E4CF11-FB0E-C949-A6F5-6B428BD6B194}" destId="{45D2AFDD-45CA-754B-AA43-693B437746E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{DF28298D-C9F3-2147-85E8-D39D967E3067}" srcId="{3D58A12A-B9B8-264E-BD9E-E85FA3CBA9EA}" destId="{ECB1009C-45F1-AD49-8507-8844A4E0AC68}" srcOrd="3" destOrd="0" parTransId="{E14009BB-621C-2A41-A673-C557A1CA377B}" sibTransId="{CE595159-41CD-D443-8F5F-79EF4DC30577}"/>
+    <dgm:cxn modelId="{B2889A16-B799-4A0B-8A6A-98562E9E7989}" type="presOf" srcId="{8786B031-BBEC-004E-B401-16E2DB877E64}" destId="{E2722DC5-7D56-0D41-A1F0-8943119E8838}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
+    <dgm:cxn modelId="{6B16ED47-9EC1-4F8B-B9A5-CF02DE5A5A71}" type="presOf" srcId="{AF756F04-A3F3-4EEF-A8F3-ADDDE9C5854F}" destId="{813A54B4-3135-47CE-A174-3B2D3D4B534E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{CA63F8B1-5779-4D7B-BD58-4FFB28CE8F2C}" type="presParOf" srcId="{C7DEF7FE-8B4C-594C-92CF-560C3DC2E911}" destId="{9C7BD3E5-68BC-4189-AAB8-658CE0345833}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{6F6F4EEC-099E-47D4-A8D2-0ACC6B121C8D}" type="presParOf" srcId="{9C7BD3E5-68BC-4189-AAB8-658CE0345833}" destId="{813A54B4-3135-47CE-A174-3B2D3D4B534E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
     <dgm:cxn modelId="{8ACAB00F-8B8B-4AA6-A44B-33D3BB473629}" type="presParOf" srcId="{9C7BD3E5-68BC-4189-AAB8-658CE0345833}" destId="{B9957E0A-07BC-416C-A1DB-F10357D43D61}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/vList5"/>
@@ -2183,7 +7362,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2201,7 +7380,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2257,7 +7436,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2267,7 +7446,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1800" kern="1200" noProof="0" dirty="0"/>
@@ -2340,7 +7518,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2366,7 +7544,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2422,7 +7600,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2432,7 +7610,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1800" kern="1200" noProof="0" dirty="0"/>
@@ -2505,7 +7682,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2531,7 +7708,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2587,7 +7764,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2597,7 +7774,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1800" kern="1200" noProof="0" dirty="0"/>
@@ -2670,7 +7846,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2696,7 +7872,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2752,7 +7928,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="800100">
+          <a:pPr lvl="0" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2762,7 +7938,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1800" kern="1200" noProof="0" dirty="0"/>
@@ -2837,7 +8012,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2863,7 +8038,7 @@
             <a:spcAft>
               <a:spcPct val="15000"/>
             </a:spcAft>
-            <a:buChar char="•"/>
+            <a:buChar char="••"/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="1400" kern="1200" noProof="0" dirty="0"/>
@@ -2919,7 +8094,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="889000">
+          <a:pPr lvl="0" algn="l" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2929,7 +8104,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="es-EC" sz="2000" kern="1200" noProof="0" dirty="0"/>
@@ -4233,7 +9407,7 @@
         <xdr:cNvPr id="2" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4264,7 +9438,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,97 +9484,166 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Jambeck et al. (2014)"/>
-      <sheetName val="po_trash_cálculos"/>
-      <sheetName val="po_trash"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="N5">
-            <v>7.448981649589656E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>5.9218971648524632E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>0.25384156640919331</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8">
-            <v>0.80876266386695672</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>0.25102400108560186</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10">
-            <v>0.19686532466280282</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>6.5513750361569714E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>7.0555980231459217E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>0.20411814490642044</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>0.122823465972957</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>0.45170678751129356</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>0.34261451492523987</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>0.24524245703123609</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>0.51450385495787943</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>519111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>195264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4665,11 +9908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4680,21 +9923,21 @@
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D3" s="19">
         <v>0</v>
@@ -4706,9 +9949,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" s="19">
         <v>15001</v>
@@ -4720,9 +9963,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5" s="19">
         <v>50001</v>
@@ -4734,9 +9977,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D6" s="19">
         <v>300001</v>
@@ -4748,24 +9991,29 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D7" s="19">
         <v>500001</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F7" s="19">
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4774,11 +10022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4787,10 +10035,11 @@
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="14" max="15" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4798,45 +10047,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26">
@@ -4879,33 +10131,56 @@
         <v>109382.69676425761</v>
       </c>
       <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="3">
         <v>1009217</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E3" s="11">
+        <v>12.949999999999998</v>
+      </c>
+      <c r="F3" s="12">
+        <v>29.998109400000001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13">
+        <f>C3*$D$2</f>
+        <v>1140415.21</v>
+      </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="14"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="36">
+        <v>1481.7928965908</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>23253</v>
@@ -4947,16 +10222,27 @@
         <v>214.53382617248769</v>
       </c>
       <c r="N4" s="4">
-        <f>M4/$M$21</f>
-        <v>7.448981649589656E-2</v>
+        <f>LN(M4)</f>
+        <v>5.3684674237089203</v>
+      </c>
+      <c r="O4" s="4">
+        <f>N4/$N$10</f>
+        <v>0.67395980149070678</v>
+      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="36">
+        <v>986.74431280404144</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>18486</v>
@@ -4998,16 +10284,27 @@
         <v>170.55314628755886</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:N19" si="3">M5/$M$21</f>
-        <v>5.9218971648524632E-2</v>
+        <f t="shared" ref="N5:N15" si="3">LN(M5)</f>
+        <v>5.1390469565840213</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O15" si="4">N5/$N$10</f>
+        <v>0.64515825343649891</v>
+      </c>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="36">
+        <v>706.3086623357608</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>71083</v>
@@ -5025,7 +10322,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" ref="H6:H19" si="4">C6*D6</f>
+        <f t="shared" ref="H6:H19" si="5">C6*D6</f>
         <v>48336.44</v>
       </c>
       <c r="I6" s="13">
@@ -5041,7 +10338,7 @@
         <v>125.19137959999998</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" ref="L6:L19" si="5">(J6+K6)/C6</f>
+        <f t="shared" ref="L6:L19" si="6">(J6+K6)/C6</f>
         <v>2.8177535137639993E-2</v>
       </c>
       <c r="M6" s="4">
@@ -5050,15 +10347,28 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="3"/>
-        <v>0.25384156640919331</v>
+        <v>6.5945153171051452</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82787840239385757</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="36">
+        <v>2880.0423502762392</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>226477</v>
@@ -5076,7 +10386,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>154004.36000000002</v>
       </c>
       <c r="I7" s="13">
@@ -5092,7 +10402,7 @@
         <v>398.87129239999996</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639997E-2</v>
       </c>
       <c r="M7" s="4">
@@ -5101,15 +10411,26 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="3"/>
-        <v>0.80876266386695672</v>
+        <v>7.7533105032573886</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.9733540683499331</v>
+      </c>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="36">
+        <v>2329.2707232590619</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>70294</v>
@@ -5127,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47799.920000000006</v>
       </c>
       <c r="I8" s="13">
@@ -5143,7 +10464,7 @@
         <v>123.80179279999999</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639993E-2</v>
       </c>
       <c r="M8" s="4">
@@ -5152,15 +10473,26 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="3"/>
-        <v>0.25102400108560186</v>
+        <v>6.5833535554120584</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82647714983866138</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="36">
+        <v>1300.9346779397556</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>55128</v>
@@ -5178,7 +10510,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37487.040000000001</v>
       </c>
       <c r="I9" s="13">
@@ -5194,7 +10526,7 @@
         <v>97.091433599999988</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.817753513764E-2</v>
       </c>
       <c r="M9" s="4">
@@ -5203,15 +10535,26 @@
       </c>
       <c r="N9" s="4">
         <f t="shared" si="3"/>
-        <v>0.19686532466280282</v>
+        <v>6.3403248627991386</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.79596721907022794</v>
+      </c>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="36">
+        <v>731.07446151893521</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>280029</v>
@@ -5229,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190419.72</v>
       </c>
       <c r="I10" s="13">
@@ -5245,7 +10588,7 @@
         <v>493.18707479999989</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639993E-2</v>
       </c>
       <c r="M10" s="8">
@@ -5254,15 +10597,26 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="3"/>
+        <v>7.9655602779789021</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="36">
+        <v>722.95975406232196</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>20451</v>
@@ -5280,7 +10634,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12475.11</v>
       </c>
       <c r="I11" s="13">
@@ -5296,7 +10650,7 @@
         <v>32.310534899999993</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5276906520529999E-2</v>
       </c>
       <c r="M11" s="4">
@@ -5305,15 +10659,26 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="3"/>
-        <v>6.5513750361569714E-2</v>
+        <v>5.2400650487901945</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.65784010991374409</v>
+      </c>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="36">
+        <v>587.86890179031309</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>22025</v>
@@ -5331,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13435.25</v>
       </c>
       <c r="I12" s="13">
@@ -5347,7 +10712,7 @@
         <v>34.797297499999992</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5276906520529992E-2</v>
       </c>
       <c r="M12" s="4">
@@ -5356,15 +10721,26 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="3"/>
-        <v>7.0555980231459217E-2</v>
+        <v>5.314211439563679</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66714848097440438</v>
+      </c>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="36">
+        <v>566.98047232975352</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
         <v>57159</v>
@@ -5382,7 +10758,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38868.120000000003</v>
       </c>
       <c r="I13" s="13">
@@ -5398,7 +10774,7 @@
         <v>100.66843079999998</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639997E-2</v>
       </c>
       <c r="M13" s="4">
@@ -5407,15 +10783,26 @@
       </c>
       <c r="N13" s="4">
         <f t="shared" si="3"/>
-        <v>0.20411814490642044</v>
+        <v>6.3765039669012884</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.80050915998079619</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="36">
+        <v>353.73678360982876</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>38341</v>
@@ -5433,7 +10820,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23388.01</v>
       </c>
       <c r="I14" s="13">
@@ -5449,7 +10836,7 @@
         <v>60.574945899999982</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5276906520529992E-2</v>
       </c>
       <c r="M14" s="4">
@@ -5458,15 +10845,26 @@
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0.122823465972957</v>
+        <v>5.8685530874392429</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="4"/>
+        <v>0.7367407793853602</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="36">
+        <v>214.53382617248769</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>126491</v>
@@ -5484,7 +10882,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86013.88</v>
       </c>
       <c r="I15" s="13">
@@ -5500,7 +10898,7 @@
         <v>222.77594919999996</v>
       </c>
       <c r="L15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639997E-2</v>
       </c>
       <c r="M15" s="4">
@@ -5509,12 +10907,23 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="3"/>
-        <v>0.45170678751129356</v>
+        <v>7.170838268135733</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="4"/>
+        <v>0.90023024343432456</v>
+      </c>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="36">
+        <v>203.20421113185569</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="3">
@@ -5531,13 +10940,21 @@
       <c r="L16" s="14"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="36">
+        <v>188.68237556674606</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>95942</v>
@@ -5555,7 +10972,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65240.560000000005</v>
       </c>
       <c r="I17" s="13">
@@ -5571,7 +10988,7 @@
         <v>168.97305039999995</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.817753513763999E-2</v>
       </c>
       <c r="M17" s="4">
@@ -5579,16 +10996,27 @@
         <v>986.74431280404144</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="3"/>
-        <v>0.34261451492523987</v>
+        <f>LN(M17)</f>
+        <v>6.8944109509631764</v>
+      </c>
+      <c r="O17" s="4">
+        <f>N17/$N$10</f>
+        <v>0.86552743440069635</v>
+      </c>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="36">
+        <v>170.55314628755886</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>68675</v>
@@ -5606,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46699</v>
       </c>
       <c r="I18" s="13">
@@ -5622,7 +11050,7 @@
         <v>120.95040999999999</v>
       </c>
       <c r="L18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.817753513764E-2</v>
       </c>
       <c r="M18" s="4">
@@ -5630,16 +11058,20 @@
         <v>706.3086623357608</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="3"/>
-        <v>0.24524245703123609</v>
+        <f t="shared" ref="N18:N19" si="7">LN(M18)</f>
+        <v>6.5600523407255693</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" ref="O18:O19" si="8">N18/$N$10</f>
+        <v>0.82355190492514208</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
         <v>144076</v>
@@ -5657,7 +11089,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97971.680000000008</v>
       </c>
       <c r="I19" s="13">
@@ -5673,7 +11105,7 @@
         <v>253.74665119999997</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8177535137639997E-2</v>
       </c>
       <c r="M19" s="4">
@@ -5681,31 +11113,139 @@
         <v>1481.7928916590763</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="3"/>
-        <v>0.51450385495787943</v>
+        <f t="shared" si="7"/>
+        <v>7.3010080468723029</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="8"/>
+        <v>0.91657181567707424</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="L21" s="18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M21" s="5">
         <f>MAX(M4:M19)</f>
         <v>2880.0423502762392</v>
       </c>
       <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="38"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="4">
+        <f>SUM(M4:M15)</f>
+        <v>10249.841683944858</v>
+      </c>
+      <c r="N27" s="33">
+        <f>M27/M29</f>
+        <v>0.90641400913774794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="8">
+        <f>AVERAGE(M17:M19)</f>
+        <v>1058.2819555996261</v>
+      </c>
+      <c r="N28" s="33">
+        <f>M28/M29</f>
+        <v>9.3585990862252014E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="4">
+        <f>SUM(M27:M28)</f>
+        <v>11308.123639544485</v>
+      </c>
+      <c r="N29" s="34">
+        <f>SUM(N27:N28)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="R6:S19">
+    <sortCondition descending="1" ref="S5"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="Q6:Q17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M4:O15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5715,13 +11255,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5731,9 +11271,9 @@
       <c r="B2" s="6">
         <v>2010</v>
       </c>
-      <c r="C2" s="8">
-        <f>MEDIAN([1]po_trash_cálculos!N18:N20)</f>
-        <v>0.34261451492523987</v>
+      <c r="C2" s="4">
+        <f>MEDIAN(po_trash_cálculos!O17:O19)</f>
+        <v>0.86552743440069635</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5743,13 +11283,79 @@
       <c r="B3" s="6">
         <v>2010</v>
       </c>
-      <c r="C3" s="8">
-        <f>MEDIAN([1]po_trash_cálculos!N5:N16)</f>
-        <v>0.20049173478461163</v>
+      <c r="C3" s="4">
+        <f>MEDIAN(po_trash_cálculos!O4:O15)</f>
+        <v>0.79823818952551207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="8">
+        <f>po_trash_mse2019!C2</f>
+        <v>0.86552743440069635</v>
+      </c>
+      <c r="D2" s="4">
+        <f>1-C2</f>
+        <v>0.13447256559930365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="8">
+        <f>po_trash_mse2019!C3</f>
+        <v>0.79823818952551207</v>
+      </c>
+      <c r="D3" s="4">
+        <f>1-C3</f>
+        <v>0.20176181047448793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>